--- a/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45383</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45418</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,15 +508,15 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -524,121 +524,305 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45446</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45460</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45467</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45502</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45516</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45523</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45530</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45551</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45558</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45600</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45607</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45621</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45628</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45635</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -653,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,31 +859,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>14</v>
@@ -707,49 +891,121 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45627</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>16</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -853,7 +854,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1007,6 +1008,817 @@
       </c>
       <c r="B20" t="n">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.459187432003717</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.12956881244256</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.294752348062235</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.43983420441185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.945921955864102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.09129100981513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.989628419641477</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.21747408787788</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.726449097473561</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.52007344242019</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.554476898335556</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.62008645308434</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.058262558279143</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.88049905904823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.627401731060935</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.86674081674074</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.008773813511833</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.63870115376237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.529538642707798</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.3098307131423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.415823176590115</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.31631533160212</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.40932902622054</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.55294942800163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.597635489176695</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.61845996846137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.489042202053091</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.82712275364829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.614053688567775</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.98073033090723</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.448208313567758</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.95852102848749</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.830634819756759</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.95705814512148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.700145199293903</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.86658455600246</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.27581041866378</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.79988939072296</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.637802465392126</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13.13626050868089</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.936458005281587</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.59690014620611</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.743418284336791</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.97534733893017</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.539679330543523</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.42203407466745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.067450723686077</v>
+      </c>
+      <c r="D25" t="n">
+        <v>13.35082628020225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.066360201338182</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13.74002733412394</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.8916226556958714</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.47915980972124</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.366276076412769</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.50358543169474</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.07170871761246579</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13.60397514793496</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.4783039991759502</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13.88889677183683</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1046113682831635</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.3696623176038</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.4306927020226833</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13.79402517816193</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2604303786226778</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.19803149454809</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1030664439329522</v>
+      </c>
+      <c r="D34" t="n">
+        <v>14.05328549254824</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.2780615348225551</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13.74313589935023</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.07284798403708813</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.83729530838492</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.5005727071411495</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.09044427848382</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.08826194100228382</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14.548319409058</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.02147480892832063</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14.46786334137371</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6550714514330404</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.73939572444676</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1731128109024191</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14.85084981532663</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5470398973290324</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14.18432461532699</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4520442082161557</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14.73783398206344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5809826383228893</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.31380474522484</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.6381691834612138</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.27144282467402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6418904792359234</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.67596898254518</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7102955160028205</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15.01489910741582</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.114562044179838</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15.07779599450731</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.711293896772732</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15.56763900211589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5447793647492124</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15.24560962905195</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.585377529939495</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.54214420052116</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4227153753205803</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.26878266818178</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9766992671039513</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15.07962174566011</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.300064819825062</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15.37726219480112</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.637929657974206</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16.12303324309471</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.101517754499828</v>
+      </c>
+      <c r="D56" t="n">
+        <v>15.38550431577135</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
@@ -1021,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,16 +1040,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1058,12 +1048,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-3.459187432003717</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.12956881244256</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1072,12 +1056,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-3.294752348062235</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.43983420441185</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1086,12 +1064,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-2.945921955864102</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.09129100981513</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1100,12 +1072,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-2.989628419641477</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.21747408787788</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1114,12 +1080,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.726449097473561</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.52007344242019</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1128,12 +1088,6 @@
       <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>-2.554476898335556</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.62008645308434</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1142,12 +1096,6 @@
       <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>-3.058262558279143</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.88049905904823</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1156,12 +1104,6 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>-2.627401731060935</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.86674081674074</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1170,12 +1112,6 @@
       <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.008773813511833</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.63870115376237</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1184,12 +1120,6 @@
       <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.529538642707798</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.3098307131423</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1198,12 +1128,6 @@
       <c r="B12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>-3.415823176590115</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11.31631533160212</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1212,12 +1136,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>-2.40932902622054</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.55294942800163</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1226,12 +1144,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>-2.597635489176695</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.61845996846137</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1240,12 +1152,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.489042202053091</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.82712275364829</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1254,12 +1160,6 @@
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.614053688567775</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11.98073033090723</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1268,12 +1168,6 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.448208313567758</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.95852102848749</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1282,12 +1176,6 @@
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.830634819756759</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12.95705814512148</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1296,12 +1184,6 @@
       <c r="B19" t="n">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.700145199293903</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12.86658455600246</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1310,12 +1192,6 @@
       <c r="B20" t="n">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.27581041866378</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12.79988939072296</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1324,12 +1200,6 @@
       <c r="B21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.637802465392126</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13.13626050868089</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1338,12 +1208,6 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
-        <v>-1.936458005281587</v>
-      </c>
-      <c r="D22" t="n">
-        <v>12.59690014620611</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1352,12 +1216,6 @@
       <c r="B23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.743418284336791</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12.97534733893017</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1366,12 +1224,6 @@
       <c r="B24" t="n">
         <v>6</v>
       </c>
-      <c r="C24" t="n">
-        <v>-1.539679330543523</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.42203407466745</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1380,12 +1232,6 @@
       <c r="B25" t="n">
         <v>6</v>
       </c>
-      <c r="C25" t="n">
-        <v>-1.067450723686077</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13.35082628020225</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1394,12 +1240,6 @@
       <c r="B26" t="n">
         <v>6</v>
       </c>
-      <c r="C26" t="n">
-        <v>-1.066360201338182</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13.74002733412394</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1408,12 +1248,6 @@
       <c r="B27" t="n">
         <v>6</v>
       </c>
-      <c r="C27" t="n">
-        <v>-0.8916226556958714</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13.47915980972124</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1422,12 +1256,6 @@
       <c r="B28" t="n">
         <v>6</v>
       </c>
-      <c r="C28" t="n">
-        <v>-1.366276076412769</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13.50358543169474</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1436,12 +1264,6 @@
       <c r="B29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.07170871761246579</v>
-      </c>
-      <c r="D29" t="n">
-        <v>13.60397514793496</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1450,12 +1272,6 @@
       <c r="B30" t="n">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
-        <v>-0.4783039991759502</v>
-      </c>
-      <c r="D30" t="n">
-        <v>13.88889677183683</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1464,12 +1280,6 @@
       <c r="B31" t="n">
         <v>7</v>
       </c>
-      <c r="C31" t="n">
-        <v>-0.1046113682831635</v>
-      </c>
-      <c r="D31" t="n">
-        <v>14.3696623176038</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1478,12 +1288,6 @@
       <c r="B32" t="n">
         <v>7</v>
       </c>
-      <c r="C32" t="n">
-        <v>-0.4306927020226833</v>
-      </c>
-      <c r="D32" t="n">
-        <v>13.79402517816193</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1492,12 +1296,6 @@
       <c r="B33" t="n">
         <v>7</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.2604303786226778</v>
-      </c>
-      <c r="D33" t="n">
-        <v>14.19803149454809</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1506,12 +1304,6 @@
       <c r="B34" t="n">
         <v>7</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.1030664439329522</v>
-      </c>
-      <c r="D34" t="n">
-        <v>14.05328549254824</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1520,12 +1312,6 @@
       <c r="B35" t="n">
         <v>7</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.2780615348225551</v>
-      </c>
-      <c r="D35" t="n">
-        <v>13.74313589935023</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1534,12 +1320,6 @@
       <c r="B36" t="n">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.07284798403708813</v>
-      </c>
-      <c r="D36" t="n">
-        <v>14.83729530838492</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1548,12 +1328,6 @@
       <c r="B37" t="n">
         <v>7</v>
       </c>
-      <c r="C37" t="n">
-        <v>-0.5005727071411495</v>
-      </c>
-      <c r="D37" t="n">
-        <v>14.09044427848382</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1562,12 +1336,6 @@
       <c r="B38" t="n">
         <v>7</v>
       </c>
-      <c r="C38" t="n">
-        <v>-0.08826194100228382</v>
-      </c>
-      <c r="D38" t="n">
-        <v>14.548319409058</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1576,12 +1344,6 @@
       <c r="B39" t="n">
         <v>7</v>
       </c>
-      <c r="C39" t="n">
-        <v>-0.02147480892832063</v>
-      </c>
-      <c r="D39" t="n">
-        <v>14.46786334137371</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1590,12 +1352,6 @@
       <c r="B40" t="n">
         <v>7</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.6550714514330404</v>
-      </c>
-      <c r="D40" t="n">
-        <v>14.73939572444676</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1604,12 +1360,6 @@
       <c r="B41" t="n">
         <v>7</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.1731128109024191</v>
-      </c>
-      <c r="D41" t="n">
-        <v>14.85084981532663</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1618,12 +1368,6 @@
       <c r="B42" t="n">
         <v>7</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.5470398973290324</v>
-      </c>
-      <c r="D42" t="n">
-        <v>14.18432461532699</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1632,12 +1376,6 @@
       <c r="B43" t="n">
         <v>8</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.4520442082161557</v>
-      </c>
-      <c r="D43" t="n">
-        <v>14.73783398206344</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1646,12 +1384,6 @@
       <c r="B44" t="n">
         <v>8</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.5809826383228893</v>
-      </c>
-      <c r="D44" t="n">
-        <v>14.31380474522484</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1660,12 +1392,6 @@
       <c r="B45" t="n">
         <v>8</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.6381691834612138</v>
-      </c>
-      <c r="D45" t="n">
-        <v>14.27144282467402</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1674,12 +1400,6 @@
       <c r="B46" t="n">
         <v>8</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.6418904792359234</v>
-      </c>
-      <c r="D46" t="n">
-        <v>14.67596898254518</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1688,12 +1408,6 @@
       <c r="B47" t="n">
         <v>8</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.7102955160028205</v>
-      </c>
-      <c r="D47" t="n">
-        <v>15.01489910741582</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1702,12 +1416,6 @@
       <c r="B48" t="n">
         <v>8</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.114562044179838</v>
-      </c>
-      <c r="D48" t="n">
-        <v>15.07779599450731</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1716,12 +1424,6 @@
       <c r="B49" t="n">
         <v>8</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.711293896772732</v>
-      </c>
-      <c r="D49" t="n">
-        <v>15.56763900211589</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1730,12 +1432,6 @@
       <c r="B50" t="n">
         <v>8</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.5447793647492124</v>
-      </c>
-      <c r="D50" t="n">
-        <v>15.24560962905195</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1744,12 +1440,6 @@
       <c r="B51" t="n">
         <v>8</v>
       </c>
-      <c r="C51" t="n">
-        <v>1.585377529939495</v>
-      </c>
-      <c r="D51" t="n">
-        <v>15.54214420052116</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1758,12 +1448,6 @@
       <c r="B52" t="n">
         <v>8</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.4227153753205803</v>
-      </c>
-      <c r="D52" t="n">
-        <v>15.26878266818178</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1772,12 +1456,6 @@
       <c r="B53" t="n">
         <v>8</v>
       </c>
-      <c r="C53" t="n">
-        <v>0.9766992671039513</v>
-      </c>
-      <c r="D53" t="n">
-        <v>15.07962174566011</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1786,12 +1464,6 @@
       <c r="B54" t="n">
         <v>8</v>
       </c>
-      <c r="C54" t="n">
-        <v>1.300064819825062</v>
-      </c>
-      <c r="D54" t="n">
-        <v>15.37726219480112</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1800,12 +1472,6 @@
       <c r="B55" t="n">
         <v>8</v>
       </c>
-      <c r="C55" t="n">
-        <v>1.637929657974206</v>
-      </c>
-      <c r="D55" t="n">
-        <v>16.12303324309471</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1813,12 +1479,6 @@
       </c>
       <c r="B56" t="n">
         <v>8</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1.101517754499828</v>
-      </c>
-      <c r="D56" t="n">
-        <v>15.38550431577135</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
+++ b/po_analysis_by_asin/B0B4MJBSD9_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -838,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1026,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1021,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1150,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1158,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1198,7 +1222,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1262,7 +1286,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1270,7 +1294,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1278,7 +1302,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1374,7 +1398,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1382,7 +1406,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1390,7 +1414,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1398,7 +1422,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1406,7 +1430,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1419,7 +1443,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>8</v>
@@ -1427,7 +1451,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>8</v>
@@ -1435,7 +1459,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>8</v>
@@ -1443,7 +1467,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>8</v>
@@ -1451,7 +1475,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>8</v>
@@ -1459,7 +1483,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>8</v>
@@ -1467,7 +1491,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>8</v>
@@ -1475,9 +1499,25 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B58" t="n">
         <v>8</v>
       </c>
     </row>
